--- a/embedded-software/TempTabelle_NTC.xlsx
+++ b/embedded-software/TempTabelle_NTC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brifr\Documents\THU\Semester_2\Masterprojekt\foxbms\embedded-software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583B2398-6D3E-44E2-9228-B2DC68B327AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C192FF-2E2D-4E67-9612-DE095C5B3407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{F7E23D20-AB09-4B59-BA72-039C578C4FFD}"/>
   </bookViews>
@@ -218,6 +218,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.5446391165633623E-2"/>
+                  <c:y val="-0.64548109370944018"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1607,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4C522D-CEC8-448F-8D74-E37AB780354C}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
